--- a/data/trans_bre/P9_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>-10,13%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 3,42</t>
+          <t>-14,42; 15,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 5,47</t>
+          <t>-20,59; 7,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 9,26</t>
+          <t>-26,04; 38,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 13,3</t>
+          <t>-34,3; 16,82</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>-4,01%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,53</t>
+          <t>-11,36; 5,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 1,35</t>
+          <t>-10,44; 4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 0,71</t>
+          <t>-13,88; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 1,81</t>
+          <t>-12,88; 6,63</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,95</t>
+          <t>-2,39; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 7,31</t>
+          <t>-0,86; 8,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 5,38</t>
+          <t>-2,4; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,23</t>
+          <t>-0,89; 10,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,11%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-12,89%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -1,53</t>
+          <t>-13,01; -3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -0,91</t>
+          <t>-15,53; -3,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -2,04</t>
+          <t>-17,25; -5,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -1,17</t>
+          <t>-19,37; -5,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-5,22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,89%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; -1,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; -1,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; -2,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; -1,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P9_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,13%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7384125382598916</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.209924221622364</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.0150531603460215</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.09955160034433758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 15,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 7,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-26,04; 38,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,3; 16,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.42382184977988</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.5593739026895</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2604172851411454</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3235744689502811</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.28067875366379</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.983050959276592</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3852369793995121</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1527408439043148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,53%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 5,42</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 4,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 7,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; 6,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.547948765146602</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.20653974469095</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.04534268528739203</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.04063653041655652</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.35640327902598</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.33632056931873</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1388147249333346</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1238126202927127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 3,22</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 8,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 3,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 10,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.417105063362585</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.629271208285538</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.07541103144765764</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.06360346966362161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-8,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,91</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-11,43%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-12,89%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1924622779820528</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.269505004640737</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.001967552417545554</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.02381243433631471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; -3,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; -3,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,25; -5,2</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-19,37; -5,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.385494086224346</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.8535747082927139</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.02399652566397658</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.008668676786216049</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.215361084592053</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.226759307311879</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.03384821086008945</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.09140827176196846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,89%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; -1,67</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; -1,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; -2,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; -1,77</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.382255059592141</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.60456132076835</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01728310265983535</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0323365347443892</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.050200496544519</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.327731233402177</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.072905931476591</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.0881026107606141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.327468976837569</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.482189667335475</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.05653276335796176</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.03111867497322878</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
